--- a/Emissao/Dados_Emissao/Editado/Maria_Aparecida_Silva_de_Almeida.xlsx
+++ b/Emissao/Dados_Emissao/Editado/Maria_Aparecida_Silva_de_Almeida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA89"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,17 +564,18 @@
           <t>Frota Itens</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ZeradoMes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>531</v>
-      </c>
-      <c r="C2" t="n">
-        <v>927</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>528902</t>
@@ -585,51 +586,17 @@
           <t>ALEXANDRE JOAO FILHO</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>54819</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>LEONIDES MARGARIDA PERES JOAO</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2024-10-28</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2025-10-28</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 224,98</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 241,57</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
@@ -671,12 +638,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -748,17 +716,18 @@
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>531</v>
-      </c>
-      <c r="C4" t="n">
-        <v>990</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>526069</t>
@@ -769,51 +738,17 @@
           <t>ANA PAULA DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>294526</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>TATIANE MIRANDOLA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2025-09-27</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>10</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.290,74</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.385,99</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
@@ -855,12 +790,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -932,6 +868,11 @@
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1003,17 +944,18 @@
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>531</v>
-      </c>
-      <c r="C7" t="n">
-        <v>990</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>437840</t>
@@ -1024,51 +966,17 @@
           <t>ARAMAR CORR DE SEGS SC LTDA</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>294934</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>LUIZ MARTINS FILHO</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2024-10-19</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2025-10-19</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.121,60</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.278,17</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
@@ -1110,23 +1018,20 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>531</v>
-      </c>
-      <c r="C8" t="n">
-        <v>990</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>510430</t>
@@ -1137,51 +1042,17 @@
           <t>AXII CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>294499</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>BENEDITO CARLOS LATANZA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2025-09-17</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>5</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.484,95</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.594,53</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
@@ -1223,23 +1094,20 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>531</v>
-      </c>
-      <c r="C9" t="n">
-        <v>990</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>533472</t>
@@ -1250,51 +1118,17 @@
           <t>Artermar Corretagem de Seguros L</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>294767</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>ANDRADE REPRESENTACOES SERVICOS LTDA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 13.123,17</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 14.091,65</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
@@ -1336,12 +1170,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1413,6 +1248,11 @@
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1484,6 +1324,11 @@
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1555,6 +1400,11 @@
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1626,6 +1476,11 @@
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1697,6 +1552,11 @@
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1768,6 +1628,11 @@
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1839,6 +1704,11 @@
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1910,6 +1780,11 @@
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1981,6 +1856,11 @@
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2052,6 +1932,11 @@
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2123,6 +2008,11 @@
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2194,6 +2084,11 @@
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2265,6 +2160,11 @@
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2336,6 +2236,11 @@
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2407,6 +2312,11 @@
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2478,6 +2388,11 @@
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2549,6 +2464,11 @@
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2620,6 +2540,11 @@
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2691,17 +2616,18 @@
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>531</v>
-      </c>
-      <c r="C29" t="n">
-        <v>990</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
           <t>403736</t>
@@ -2712,51 +2638,17 @@
           <t>GUARNIERI - ADM E COR DE SEGS S</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>294719</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>GUARNIERI POLETINE GUARNIERI LTDA EPP</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>10</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.385,85</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.488,12</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
@@ -2798,78 +2690,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>531</v>
-      </c>
-      <c r="C30" t="n">
-        <v>990</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>403736</t>
+          <t>443199</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GUARNIERI - ADM E COR DE SEGS S</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>294720</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>GUARNIERI POLETINE GUARNIERI LTDA EPP</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>10</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.075,87</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.229,06</t>
-        </is>
-      </c>
+          <t>H T GOLD CORRET DE SGS S/S LTDA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
@@ -2911,78 +2766,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>531</v>
-      </c>
-      <c r="C31" t="n">
-        <v>990</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>403736</t>
+          <t>485460</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GUARNIERI - ADM E COR DE SEGS S</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>294721</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>GUARNIERI POLETINE GUARNIERI LTDA EPP</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>10</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.892,15</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.105,59</t>
-        </is>
-      </c>
+          <t>HERITA ADM E CORRETORA DE SEGURO</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
@@ -3024,12 +2842,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3039,12 +2858,12 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>443199</t>
+          <t>521424</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>H T GOLD CORRET DE SGS S/S LTDA</t>
+          <t>HOPEFUL CORRETORA DE SEGUROS DE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -3101,72 +2920,39 @@
       </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>531</v>
-      </c>
-      <c r="C33" t="n">
-        <v>990</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>485460</t>
+          <t>525365</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>HERITA ADM E CORRETORA DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>294209</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>JADSON COLETTI</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2024-09-14</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>6</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.891,44</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.031,02</t>
-        </is>
-      </c>
+          <t>J BRAGA CORRETORA DE SEGUROS E S</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
@@ -3208,78 +2994,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>531</v>
-      </c>
-      <c r="C34" t="n">
-        <v>990</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>521424</t>
+          <t>512395</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>HOPEFUL CORRETORA DE SEGUROS DE</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>294593</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>RONALDO PEREIRA DE LIMA</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>10</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.014,45</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.163,11</t>
-        </is>
-      </c>
+          <t>JHZS CONSULTORIA E CORR DE SEGS</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
@@ -3321,12 +3070,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3336,12 +3086,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>525365</t>
+          <t>532549</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>J BRAGA CORRETORA DE SEGUROS E S</t>
+          <t>JUNDISEG CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -3398,6 +3148,11 @@
       </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3407,12 +3162,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>512395</t>
+          <t>534097</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>JHZS CONSULTORIA E CORR DE SEGS</t>
+          <t>LANEK CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -3469,6 +3224,11 @@
       </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3478,12 +3238,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>532549</t>
+          <t>527477</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>JUNDISEG CORRETORA DE SEGUROS LT</t>
+          <t>LETS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -3540,6 +3300,11 @@
       </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3549,12 +3314,12 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>534097</t>
+          <t>531648</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LANEK CORRETORA DE SEGUROS LTDA</t>
+          <t>LRB Corretora de Seguros Ltda</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -3611,34 +3376,77 @@
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>531</v>
+      </c>
+      <c r="C39" t="n">
+        <v>990</v>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>527477</t>
+          <t>404161</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LETS CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+          <t>M F C ASSESSORIA E CORR. DE SEGS</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>296881</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>RICARDO PEREIRA MATUO</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.081,06</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.382,24</t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
@@ -3680,8 +3488,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3691,12 +3504,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>531648</t>
+          <t>517639</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>LRB Corretora de Seguros Ltda</t>
+          <t>MAC BENEFICIOS E C DE S LTDA- ME</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -3753,72 +3566,39 @@
       </c>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>531</v>
-      </c>
-      <c r="C41" t="n">
-        <v>990</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>404161</t>
+          <t>534350</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>M F C ASSESSORIA E CORR. DE SEGS</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>294643</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>ANDRE DE CAMPOS GIORDANA</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2024-09-28</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>6</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.668,89</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.865,85</t>
-        </is>
-      </c>
+          <t>MAPE CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
@@ -3860,12 +3640,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3875,12 +3656,12 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>517639</t>
+          <t>534398</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MAC BENEFICIOS E C DE S LTDA- ME</t>
+          <t>MARTINSSEG CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3937,6 +3718,11 @@
       </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3946,12 +3732,12 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>534350</t>
+          <t>414485</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MAPE CORRETORA DE SEGUROS LTDA</t>
+          <t>MARUMOTO COR DE SEG LTDA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -4008,72 +3794,39 @@
       </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>531</v>
-      </c>
-      <c r="C44" t="n">
-        <v>990</v>
-      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>534398</t>
+          <t>485851</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MARTINSSEG CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>294327</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>DANILO JUNIOR PAULINO</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2025-09-25</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>10</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12.727,35</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 13.666,62</t>
-        </is>
-      </c>
+          <t>MBROKER CORA DE SEG E SERV ADM L</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
@@ -4115,78 +3868,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>531</v>
-      </c>
-      <c r="C45" t="n">
-        <v>990</v>
-      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>534398</t>
+          <t>404100</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MARTINSSEG CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>294821</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>SERGIO PEDRO CAMARGO</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>10</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.937,89</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.154,70</t>
-        </is>
-      </c>
+          <t>MENDES RANUCCI ADM E COR DE SEGS</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
@@ -4228,12 +3944,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4243,12 +3960,12 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>414485</t>
+          <t>402951</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MARUMOTO COR DE SEG LTDA</t>
+          <t>MOGI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -4305,6 +4022,11 @@
       </c>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4314,12 +4036,12 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>485851</t>
+          <t>528485</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MBROKER CORA DE SEG E SERV ADM L</t>
+          <t>MVC Corretora de Seguros LTDA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -4376,72 +4098,39 @@
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>531</v>
-      </c>
-      <c r="C48" t="n">
-        <v>927</v>
-      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>404100</t>
+          <t>525558</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MENDES RANUCCI ADM E COR DE SEGS</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>55021</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>JOAO ALFREDO REVERS</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>2024-10-16</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>2</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 375,18</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 402,86</t>
-        </is>
-      </c>
+          <t>Marcos Aparecido Barbosa</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
@@ -4483,12 +4172,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4498,12 +4188,12 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>402951</t>
+          <t>525567</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MOGI CORRETORA DE SEGUROS LTDA</t>
+          <t>Metaplus Corretora de Seguros Lt</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -4560,6 +4250,11 @@
       </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4569,12 +4264,12 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>528485</t>
+          <t>404800</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MVC Corretora de Seguros LTDA</t>
+          <t>NUNES E JUDAR ADM. COR. S. SC. L</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -4591,12 +4286,12 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>916</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>CAMPINAS MERCADO</t>
+          <t>JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -4631,6 +4326,11 @@
       </c>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4640,12 +4340,12 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>525558</t>
+          <t>493089</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Marcos Aparecido Barbosa</t>
+          <t>PADME CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -4702,6 +4402,11 @@
       </c>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4711,12 +4416,12 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>525567</t>
+          <t>488169</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Metaplus Corretora de Seguros Lt</t>
+          <t>PARAMITAS CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -4773,6 +4478,11 @@
       </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4782,12 +4492,12 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>404800</t>
+          <t>400438</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NUNES E JUDAR ADM. COR. S. SC. L</t>
+          <t>PAULO FIRMINO DOS SANTOS JUNIOR</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -4804,12 +4514,12 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>911</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>JUNDIAI MERCADO</t>
+          <t>CAMPINAS MERCADO</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -4844,72 +4554,39 @@
       </c>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>531</v>
-      </c>
-      <c r="C54" t="n">
-        <v>927</v>
-      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>493089</t>
+          <t>486172</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PADME CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>54707</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>ADRIANA CARLA FREITAS DA SILVA</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>4</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 116,54</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 125,11</t>
-        </is>
-      </c>
+          <t>PEPI CORRETORA DE SEGUROS EIRELI</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
@@ -4951,78 +4628,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>531</v>
-      </c>
-      <c r="C55" t="n">
-        <v>927</v>
-      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>493089</t>
+          <t>511954</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PADME CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>54712</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>MILDRED APARECIDA BROTONI</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>2</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 137,46</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 147,58</t>
-        </is>
-      </c>
+          <t>PLANEJA FUTURO CONS CORR DE SEG</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
@@ -5064,78 +4704,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>531</v>
-      </c>
-      <c r="C56" t="n">
-        <v>927</v>
-      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>493089</t>
+          <t>531856</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PADME CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>54715</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>CARLA BROTONI SANTANA</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
-        <v>2</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 126,77</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 136,12</t>
-        </is>
-      </c>
+          <t>POS CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
@@ -5177,12 +4780,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5192,12 +4796,12 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>488169</t>
+          <t>527660</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PARAMITAS CORRETORA DE SEGUROS L</t>
+          <t>PRIME CONNECT COR SEG E PLAN SAU</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -5254,6 +4858,11 @@
       </c>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5263,12 +4872,12 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>400438</t>
+          <t>523907</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PAULO FIRMINO DOS SANTOS JUNIOR</t>
+          <t>PRIME CORRETORA DE SEGUROS E CON</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -5325,6 +4934,11 @@
       </c>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5334,12 +4948,12 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>486172</t>
+          <t>527031</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PEPI CORRETORA DE SEGUROS EIRELI</t>
+          <t>PRIME SEGUROS E CONSORCIO LTDA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -5396,6 +5010,11 @@
       </c>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5405,12 +5024,12 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>511954</t>
+          <t>512275</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PLANEJA FUTURO CONS CORR DE SEG</t>
+          <t>PROSP SEG CORRETAGEM DE SEGUROS</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -5467,6 +5086,11 @@
       </c>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -5476,12 +5100,12 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>531856</t>
+          <t>495201</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>POS CORRETORA DE SEGUROS LTDA</t>
+          <t>RD SEGUROS EIRELI</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -5538,6 +5162,11 @@
       </c>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5547,12 +5176,12 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>527660</t>
+          <t>502954</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PRIME CONNECT COR SEG E PLAN SAU</t>
+          <t>RODRIGO ALVES</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -5609,6 +5238,11 @@
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -5618,12 +5252,12 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>523907</t>
+          <t>527837</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PRIME CORRETORA DE SEGUROS E CON</t>
+          <t>RONALDO MANDETTA SEGUROS</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -5680,6 +5314,11 @@
       </c>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -5689,12 +5328,12 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>527031</t>
+          <t>400681</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PRIME SEGUROS E CONSORCIO LTDA</t>
+          <t>ROSANA PANTAROTO MESIANO</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -5751,72 +5390,39 @@
       </c>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>531</v>
-      </c>
-      <c r="C65" t="n">
-        <v>927</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>512275</t>
+          <t>404493</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PROSP SEG CORRETAGEM DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>55102</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>CAMILLA DE MOURA BANDEIRA DOS REIS</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>3</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 249,68</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 268,10</t>
-        </is>
-      </c>
+          <t>RR FENIX CORRETORA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
@@ -5858,12 +5464,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5873,12 +5480,12 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>495201</t>
+          <t>493851</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>RD SEGUROS EIRELI</t>
+          <t>SERGIO METANOIA CORR DE SEGUROS</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -5935,6 +5542,11 @@
       </c>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5944,12 +5556,12 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>502954</t>
+          <t>400534</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>RODRIGO ALVES</t>
+          <t>SERGIO ROBERTO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -6006,6 +5618,11 @@
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6015,12 +5632,12 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>527837</t>
+          <t>486249</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>RONALDO MANDETTA SEGUROS</t>
+          <t>SORAIA CRUZ MACHADO GUEDES</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -6037,12 +5654,12 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>916</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>CAMPINAS MERCADO</t>
+          <t>JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -6077,6 +5694,11 @@
       </c>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6086,12 +5708,12 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>400681</t>
+          <t>527223</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ROSANA PANTAROTO MESIANO</t>
+          <t>STANLEY CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -6148,6 +5770,11 @@
       </c>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6157,12 +5784,12 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>404493</t>
+          <t>490604</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>RR FENIX CORRETORA DE SEGUROS</t>
+          <t>TARGET CONSULTING CORRETORA DE S</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -6219,6 +5846,11 @@
       </c>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6228,12 +5860,12 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>493851</t>
+          <t>534349</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERGIO METANOIA CORR DE SEGUROS</t>
+          <t>TF COLETTI SERV INFORMACOES CADA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -6290,6 +5922,11 @@
       </c>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6299,12 +5936,12 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>400534</t>
+          <t>440456</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERGIO ROBERTO DE OLIVEIRA</t>
+          <t>V. ANTUNES CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -6361,6 +5998,11 @@
       </c>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6370,12 +6012,12 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>486249</t>
+          <t>485441</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SORAIA CRUZ MACHADO GUEDES</t>
+          <t>VALDICEA PERIGO ZAMENGO</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -6392,12 +6034,12 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>911</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>JUNDIAI MERCADO</t>
+          <t>CAMPINAS MERCADO</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -6432,6 +6074,11 @@
       </c>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6441,12 +6088,12 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>527223</t>
+          <t>532408</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>STANLEY CORRETORA DE SEGUROS LTD</t>
+          <t>VEIKI ADM E CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -6503,72 +6150,39 @@
       </c>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>531</v>
-      </c>
-      <c r="C75" t="n">
-        <v>927</v>
-      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>490604</t>
+          <t>527689</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TARGET CONSULTING CORRETORA DE S</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>54985</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>DIEGO DALLA VECCHIA SCUR</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>2</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335,47</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 360,22</t>
-        </is>
-      </c>
+          <t>VIP CLASS CORRETORA DE SEGUROS L</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
@@ -6610,12 +6224,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6625,12 +6240,12 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>534349</t>
+          <t>493464</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TF COLETTI SERV INFORMACOES CADA</t>
+          <t>WS BROKER CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -6687,6 +6302,11 @@
       </c>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -6696,12 +6316,12 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>440456</t>
+          <t>490261</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>V. ANTUNES CORRETORA DE SEGUROS</t>
+          <t>WS3 GESTAO DE RISCOS E SEGUROS L</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -6758,6 +6378,11 @@
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -6767,12 +6392,12 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>485441</t>
+          <t>491657</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>VALDICEA PERIGO ZAMENGO</t>
+          <t>ZAIDEN CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -6829,72 +6454,39 @@
       </c>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>531</v>
-      </c>
-      <c r="C79" t="n">
-        <v>927</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>532408</t>
+          <t>487851</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VEIKI ADM E CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>54737</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>CARLA THAIS DA COSTA NAVARRO</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>2</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 114,28</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 122,70</t>
-        </is>
-      </c>
+          <t>ZANCK CORRETORA DE SGRS LTDA ME</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
@@ -6936,78 +6528,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>531</v>
-      </c>
-      <c r="C80" t="n">
-        <v>990</v>
-      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>532408</t>
+          <t>527659</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VEIKI ADM E CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>294702</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>VANDRE MARCOS RODRIGUES BRAGA</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>10</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.178,30</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.339,05</t>
-        </is>
-      </c>
+          <t>celso prado corretora de seguros</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
@@ -7049,861 +6604,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>531</v>
-      </c>
-      <c r="C81" t="n">
-        <v>927</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>527689</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>VIP CLASS CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>54770</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>DENIS HENRIQUE CARVALHO DURIGUETO</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>1</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 382,44</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 410,65</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>968.609.287-00</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>531</v>
-      </c>
-      <c r="C82" t="n">
-        <v>990</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>493464</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>WS BROKER CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>294359</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>EMERSON GOMES BOLTEN ROCHA</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>5</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.227,28</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.317,85</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>968.609.287-00</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>531</v>
-      </c>
-      <c r="C83" t="n">
-        <v>990</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>493464</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>WS BROKER CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>294375</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>JOAO DENIS DE OLIVEIRA COSTA</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>10</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.613,61</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.732,69</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>968.609.287-00</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>531</v>
-      </c>
-      <c r="C84" t="n">
-        <v>990</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>493464</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>WS BROKER CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>294399</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>DAIANE ERIKA AMARAL DA SILVA</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>10</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.462,72</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.644,46</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>968.609.287-00</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>531</v>
-      </c>
-      <c r="C85" t="n">
-        <v>990</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>493464</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>WS BROKER CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>294698</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>DIONISIO PETROCINI JUNIOR</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>2025-10-11</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>1</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.734,74</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.862,76</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>968.609.287-00</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>490261</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>WS3 GESTAO DE RISCOS E SEGUROS L</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>968.609.287-00</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>491657</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>ZAIDEN CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>968.609.287-00</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>487851</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>ZANCK CORRETORA DE SGRS LTDA ME</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>968.609.287-00</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>527659</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>celso prado corretora de seguros</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>968.609.287-00</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y89" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
